--- a/data/test-deck.xlsx
+++ b/data/test-deck.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.jones\Documents\GitHub\Raspberry\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\GitHub\Raspberry\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,16 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Flask</t>
   </si>
@@ -56,15 +47,9 @@
     <t>1 Coin</t>
   </si>
   <si>
-    <t>Role</t>
-  </si>
-  <si>
     <t>Apothecary</t>
   </si>
   <si>
-    <t>basetype</t>
-  </si>
-  <si>
     <t>Box</t>
   </si>
   <si>
@@ -83,13 +68,45 @@
     <t>Gain 1 wound</t>
   </si>
   <si>
-    <t>gain :strike: or :coin:</t>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>BaseType</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>SubDeck</t>
+  </si>
+  <si>
+    <t>Corruption</t>
+  </si>
+  <si>
+    <t>Gain :strike:
+or
+Gain :coin:</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Longer Description to Wrap</t>
+  </si>
+  <si>
+    <t>Gain :strike:</t>
+  </si>
+  <si>
+    <t>Something</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,8 +136,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,119 +455,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
